--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2847.866172329671</v>
+        <v>846.0334744910117</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3369998931884766</v>
+        <v>0.3610000610351562</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.6700068851427</v>
+        <v>40.41489103751928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.12083754371615</v>
+        <v>16.47355593921199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.187002988238969</v>
+        <v>16.09213939270453</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2432.740000000006</v>
+        <v>649.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.39</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -747,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.45299375948243</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.56664585946113</v>
+        <v>13.88634790002123</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.69357170702614</v>
+        <v>22.94108823397048</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055587</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -957,10 +968,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -971,10 +982,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -985,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1052,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>340.0110000000002</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>265.4299999999994</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>156.0779999999987</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>164.2</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.73599999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>340.0109999999997</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.2630000000008</v>
+        <v>164.2</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>240.0109999999997</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.263000000000829</v>
+        <v>64.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1245,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1267,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,7 +1319,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1319,7 +1330,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1330,23 +1341,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
